--- a/data/pca/factorExposure/factorExposure_2012-10-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-24.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002163674958891477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001821710754239628</v>
+      </c>
+      <c r="C2">
+        <v>0.02887160006619325</v>
+      </c>
+      <c r="D2">
+        <v>0.006652002508905189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001070067810674875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007014266650791274</v>
+      </c>
+      <c r="C4">
+        <v>0.08314857738857408</v>
+      </c>
+      <c r="D4">
+        <v>0.07434141918336179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0008885199609176588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01390678098548032</v>
+      </c>
+      <c r="C6">
+        <v>0.1136492973477476</v>
+      </c>
+      <c r="D6">
+        <v>0.02206085733115674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0008912098771257517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004929774841229351</v>
+      </c>
+      <c r="C7">
+        <v>0.05860377120227171</v>
+      </c>
+      <c r="D7">
+        <v>0.03202397659236435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005900225682851386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005641242125331737</v>
+      </c>
+      <c r="C8">
+        <v>0.0350578962186924</v>
+      </c>
+      <c r="D8">
+        <v>0.04074544151407913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003249081745409631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005097044637258489</v>
+      </c>
+      <c r="C9">
+        <v>0.07123019903479626</v>
+      </c>
+      <c r="D9">
+        <v>0.07560737391281476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001346009084857827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005689989024598671</v>
+      </c>
+      <c r="C10">
+        <v>0.0576389455953378</v>
+      </c>
+      <c r="D10">
+        <v>-0.1976446968225183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002871191767777377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005700097033337129</v>
+      </c>
+      <c r="C11">
+        <v>0.08001635896902615</v>
+      </c>
+      <c r="D11">
+        <v>0.06349591169216935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0007033044506900653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004081851848592142</v>
+      </c>
+      <c r="C12">
+        <v>0.0648708577597015</v>
+      </c>
+      <c r="D12">
+        <v>0.05049801421785724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00253879665568103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008588683967233673</v>
+      </c>
+      <c r="C13">
+        <v>0.06714135224384518</v>
+      </c>
+      <c r="D13">
+        <v>0.06439995031823254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002164959013530659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008109797074411578</v>
+      </c>
+      <c r="C14">
+        <v>0.043186605295392</v>
+      </c>
+      <c r="D14">
+        <v>0.009119667706134562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001146663116870842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005973901141856859</v>
+      </c>
+      <c r="C15">
+        <v>0.0405545932647144</v>
+      </c>
+      <c r="D15">
+        <v>0.03031742150503877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001021283670622105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005050110013656499</v>
+      </c>
+      <c r="C16">
+        <v>0.06456669558624785</v>
+      </c>
+      <c r="D16">
+        <v>0.05556475768897467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0005430873057214993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009078006383933039</v>
+      </c>
+      <c r="C20">
+        <v>0.0646622858786859</v>
+      </c>
+      <c r="D20">
+        <v>0.04782998371360751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00702352071393661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009702072330389784</v>
+      </c>
+      <c r="C21">
+        <v>0.02046043807058297</v>
+      </c>
+      <c r="D21">
+        <v>0.04248690366410292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01533165417705666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006408015478813348</v>
+      </c>
+      <c r="C22">
+        <v>0.08939852531772094</v>
+      </c>
+      <c r="D22">
+        <v>0.1172872375329937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01509730749388148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006219160293058817</v>
+      </c>
+      <c r="C23">
+        <v>0.08990451375792252</v>
+      </c>
+      <c r="D23">
+        <v>0.118203621035215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002199905865372003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005586725929174161</v>
+      </c>
+      <c r="C24">
+        <v>0.07613958257638812</v>
+      </c>
+      <c r="D24">
+        <v>0.06703973341498538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003944967737749612</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003185614835203413</v>
+      </c>
+      <c r="C25">
+        <v>0.07836876802726216</v>
+      </c>
+      <c r="D25">
+        <v>0.06582036280849043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003266365216426461</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003678108946810138</v>
+      </c>
+      <c r="C26">
+        <v>0.03885824090418349</v>
+      </c>
+      <c r="D26">
+        <v>0.02626845972596289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007804805328440517</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001464829541930827</v>
+      </c>
+      <c r="C28">
+        <v>0.1030977650705543</v>
+      </c>
+      <c r="D28">
+        <v>-0.3198353848637326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001383688604852912</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00263229176804094</v>
+      </c>
+      <c r="C29">
+        <v>0.04909873852079269</v>
+      </c>
+      <c r="D29">
+        <v>0.008137675752761659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004803901158987405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009688747982112316</v>
+      </c>
+      <c r="C30">
+        <v>0.1415786437639668</v>
+      </c>
+      <c r="D30">
+        <v>0.1081011246239918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0005825239941309127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006265518011211756</v>
+      </c>
+      <c r="C31">
+        <v>0.0442460711167323</v>
+      </c>
+      <c r="D31">
+        <v>0.03073323949170272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0003344839794097128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003646625914359798</v>
+      </c>
+      <c r="C32">
+        <v>0.0405045078980539</v>
+      </c>
+      <c r="D32">
+        <v>0.02582655119847859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002378024259228128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008872238481759926</v>
+      </c>
+      <c r="C33">
+        <v>0.08765528923093223</v>
+      </c>
+      <c r="D33">
+        <v>0.06569484555999906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004096278069222798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004089792073146109</v>
+      </c>
+      <c r="C34">
+        <v>0.05772500408751319</v>
+      </c>
+      <c r="D34">
+        <v>0.05766962491552522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0005695423331539822</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005210800916801659</v>
+      </c>
+      <c r="C35">
+        <v>0.04109531551096784</v>
+      </c>
+      <c r="D35">
+        <v>0.01925966273320424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00446040368044078</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001183017296119563</v>
+      </c>
+      <c r="C36">
+        <v>0.02505459918634461</v>
+      </c>
+      <c r="D36">
+        <v>0.02563664485114473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.000867429422441437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009191533431439426</v>
+      </c>
+      <c r="C38">
+        <v>0.03697692884916053</v>
+      </c>
+      <c r="D38">
+        <v>0.01527445952588443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01272145078171602</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009508962098110212</v>
+      </c>
+      <c r="C39">
+        <v>0.1142968731585508</v>
+      </c>
+      <c r="D39">
+        <v>0.07858368692466397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007181852075178957</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003726918444728045</v>
+      </c>
+      <c r="C40">
+        <v>0.09079388457040895</v>
+      </c>
+      <c r="D40">
+        <v>0.01584538094383356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0008167184856183987</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00713349124365476</v>
+      </c>
+      <c r="C41">
+        <v>0.03826259517697037</v>
+      </c>
+      <c r="D41">
+        <v>0.03938160323261932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002855649178609837</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003928772444933473</v>
+      </c>
+      <c r="C43">
+        <v>0.05382734141613881</v>
+      </c>
+      <c r="D43">
+        <v>0.0261552550523332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01283130597809123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003038370082041593</v>
+      </c>
+      <c r="C44">
+        <v>0.106245390119107</v>
+      </c>
+      <c r="D44">
+        <v>0.06748216749736069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001241855853718281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001774882992747327</v>
+      </c>
+      <c r="C46">
+        <v>0.03306183110706323</v>
+      </c>
+      <c r="D46">
+        <v>0.03332054339652332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002083035582191188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.00221349485048562</v>
+      </c>
+      <c r="C47">
+        <v>0.03675261982724397</v>
+      </c>
+      <c r="D47">
+        <v>0.02007228771862026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004148141798994284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006647093898870584</v>
+      </c>
+      <c r="C48">
+        <v>0.03031298730636006</v>
+      </c>
+      <c r="D48">
+        <v>0.0362561825219258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.009802332252531418</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01736029342806566</v>
+      </c>
+      <c r="C49">
+        <v>0.1884558463094188</v>
+      </c>
+      <c r="D49">
+        <v>0.006243040765125974</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001238862029902344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003520669463991487</v>
+      </c>
+      <c r="C50">
+        <v>0.04296823972643539</v>
+      </c>
+      <c r="D50">
+        <v>0.03886694255571164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008817372087454249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004778466598634495</v>
+      </c>
+      <c r="C51">
+        <v>0.025787174077769</v>
+      </c>
+      <c r="D51">
+        <v>0.02215144305642822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001887453531195739</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02116370261411264</v>
+      </c>
+      <c r="C53">
+        <v>0.1698985119471161</v>
+      </c>
+      <c r="D53">
+        <v>0.02535534222910814</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002342245052706023</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008913199540107599</v>
+      </c>
+      <c r="C54">
+        <v>0.0543093322773913</v>
+      </c>
+      <c r="D54">
+        <v>0.04466640891840597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003813395810476621</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009617156792325466</v>
+      </c>
+      <c r="C55">
+        <v>0.1084629980694337</v>
+      </c>
+      <c r="D55">
+        <v>0.03944907287928277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003058666534915259</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02000757351105948</v>
+      </c>
+      <c r="C56">
+        <v>0.1758412614545797</v>
+      </c>
+      <c r="D56">
+        <v>0.01543482342157186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.004390406903514308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01959321042896864</v>
+      </c>
+      <c r="C58">
+        <v>0.108741948790473</v>
+      </c>
+      <c r="D58">
+        <v>0.06546794943945111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.009431285795096856</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009873376325670423</v>
+      </c>
+      <c r="C59">
+        <v>0.1658081275608069</v>
+      </c>
+      <c r="D59">
+        <v>-0.3400896024806584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003234603002328929</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02517047018603095</v>
+      </c>
+      <c r="C60">
+        <v>0.2250209983203226</v>
+      </c>
+      <c r="D60">
+        <v>0.02160054372594598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0132479556177151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001897520520380732</v>
+      </c>
+      <c r="C61">
+        <v>0.09433887597332209</v>
+      </c>
+      <c r="D61">
+        <v>0.05916026859968852</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1590599246732561</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1486814676911637</v>
+      </c>
+      <c r="C62">
+        <v>0.09536815402176409</v>
+      </c>
+      <c r="D62">
+        <v>0.02748333099902253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-1.449162314984107e-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006609527619420787</v>
+      </c>
+      <c r="C63">
+        <v>0.05395957014733933</v>
+      </c>
+      <c r="D63">
+        <v>0.03161642923154231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002052287118035634</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01586256204141476</v>
+      </c>
+      <c r="C64">
+        <v>0.1041590599951737</v>
+      </c>
+      <c r="D64">
+        <v>0.05733730696215422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002544957328700918</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01792576224969748</v>
+      </c>
+      <c r="C65">
+        <v>0.1235860046526708</v>
+      </c>
+      <c r="D65">
+        <v>0.02044495514330007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.003507374893192325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01340762542061811</v>
+      </c>
+      <c r="C66">
+        <v>0.1587130563707343</v>
+      </c>
+      <c r="D66">
+        <v>0.1138498334940712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003104189752066299</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01549135321682359</v>
+      </c>
+      <c r="C67">
+        <v>0.06851132099242475</v>
+      </c>
+      <c r="D67">
+        <v>0.02749348952255075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007279976160407922</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0008804640649197874</v>
+      </c>
+      <c r="C68">
+        <v>0.0865774160533782</v>
+      </c>
+      <c r="D68">
+        <v>-0.2570572525450348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001549814180572202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00622719526998666</v>
+      </c>
+      <c r="C69">
+        <v>0.05134417433991076</v>
+      </c>
+      <c r="D69">
+        <v>0.03773551186077986</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000400870652939208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001984997000753098</v>
+      </c>
+      <c r="C70">
+        <v>0.005784126052438936</v>
+      </c>
+      <c r="D70">
+        <v>0.000409013070751898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002227882501431241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005486835641734641</v>
+      </c>
+      <c r="C71">
+        <v>0.09120086612436765</v>
+      </c>
+      <c r="D71">
+        <v>-0.3020536515618125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003320107093866083</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01658589046310012</v>
+      </c>
+      <c r="C72">
+        <v>0.1546980447943801</v>
+      </c>
+      <c r="D72">
+        <v>0.01815331159993037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.009829885402383217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03185126001060643</v>
+      </c>
+      <c r="C73">
+        <v>0.2832971213159247</v>
+      </c>
+      <c r="D73">
+        <v>0.0544776018956277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005503266261231385</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002026042550141774</v>
+      </c>
+      <c r="C74">
+        <v>0.1024958787018791</v>
+      </c>
+      <c r="D74">
+        <v>0.03655108792264396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004033915387120096</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01133564500582352</v>
+      </c>
+      <c r="C75">
+        <v>0.1230655408713962</v>
+      </c>
+      <c r="D75">
+        <v>0.02212139587545063</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.006913438386952612</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02230200515297661</v>
+      </c>
+      <c r="C76">
+        <v>0.1480418216918902</v>
+      </c>
+      <c r="D76">
+        <v>0.05811236132888305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002040963719147254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02177816156198095</v>
+      </c>
+      <c r="C77">
+        <v>0.1129198059089128</v>
+      </c>
+      <c r="D77">
+        <v>0.05080400874141718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.002266327039832867</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01500797787376723</v>
+      </c>
+      <c r="C78">
+        <v>0.09623969261714843</v>
+      </c>
+      <c r="D78">
+        <v>0.07705968800976734</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02329779478770307</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03854484366965116</v>
+      </c>
+      <c r="C79">
+        <v>0.1569557870334274</v>
+      </c>
+      <c r="D79">
+        <v>0.03212256489124383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00768797668021415</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01005720814345231</v>
+      </c>
+      <c r="C80">
+        <v>0.03823171019183708</v>
+      </c>
+      <c r="D80">
+        <v>0.03129106678581736</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001424587961256895</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01583090957915273</v>
+      </c>
+      <c r="C81">
+        <v>0.1297697266333702</v>
+      </c>
+      <c r="D81">
+        <v>0.03839169797591697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004501461252741592</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02012206370348165</v>
+      </c>
+      <c r="C82">
+        <v>0.1388271077630079</v>
+      </c>
+      <c r="D82">
+        <v>0.04172350228304419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005540431322225377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01057685938876216</v>
+      </c>
+      <c r="C83">
+        <v>0.05975051122890734</v>
+      </c>
+      <c r="D83">
+        <v>0.04797290995342944</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01383545063469653</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01184686529200827</v>
+      </c>
+      <c r="C84">
+        <v>0.03704811368077068</v>
+      </c>
+      <c r="D84">
+        <v>-0.004185758651039026</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01499628504877588</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02946602009349048</v>
+      </c>
+      <c r="C85">
+        <v>0.1242790043877816</v>
+      </c>
+      <c r="D85">
+        <v>0.04232108624794366</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0008786631998203875</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004580516499929698</v>
+      </c>
+      <c r="C86">
+        <v>0.04996321536614073</v>
+      </c>
+      <c r="D86">
+        <v>0.02877399490314142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00326544165804598</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01078173823082604</v>
+      </c>
+      <c r="C87">
+        <v>0.1284307593125358</v>
+      </c>
+      <c r="D87">
+        <v>0.07406555042534828</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01123734361039362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002894860991032964</v>
+      </c>
+      <c r="C88">
+        <v>0.06340359723379953</v>
+      </c>
+      <c r="D88">
+        <v>0.02638353719746401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.015343865099553</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001902569544653513</v>
+      </c>
+      <c r="C89">
+        <v>0.1401317754723386</v>
+      </c>
+      <c r="D89">
+        <v>-0.3206318841607241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004907962830164102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006516616561134602</v>
+      </c>
+      <c r="C90">
+        <v>0.1198080243259484</v>
+      </c>
+      <c r="D90">
+        <v>-0.3146625938880279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0008864415096676358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01053136564725901</v>
+      </c>
+      <c r="C91">
+        <v>0.09993708724795956</v>
+      </c>
+      <c r="D91">
+        <v>0.02481420504449884</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01187421841724304</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0003872861448910891</v>
+      </c>
+      <c r="C92">
+        <v>0.1354703507952558</v>
+      </c>
+      <c r="D92">
+        <v>-0.3266842359332192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002266089870535199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004486138886581676</v>
+      </c>
+      <c r="C93">
+        <v>0.1049826761214132</v>
+      </c>
+      <c r="D93">
+        <v>-0.3000116237986705</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.001102232607404195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02191846131869682</v>
+      </c>
+      <c r="C94">
+        <v>0.1441605436991902</v>
+      </c>
+      <c r="D94">
+        <v>0.05200687756237046</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002371144909595935</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0166722035836983</v>
+      </c>
+      <c r="C95">
+        <v>0.1219258061466734</v>
+      </c>
+      <c r="D95">
+        <v>0.06396707120761858</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001933528257535297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03691795252818953</v>
+      </c>
+      <c r="C97">
+        <v>0.2230998432137828</v>
+      </c>
+      <c r="D97">
+        <v>0.001368069621805332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.001190753320658867</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03799087466325114</v>
+      </c>
+      <c r="C98">
+        <v>0.2547135910389805</v>
+      </c>
+      <c r="D98">
+        <v>0.0372314736332303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9855024835763923</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813608243730892</v>
+      </c>
+      <c r="C99">
+        <v>-0.1196939045614684</v>
+      </c>
+      <c r="D99">
+        <v>-0.02506103441243445</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001300410945073132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002674927623420139</v>
+      </c>
+      <c r="C101">
+        <v>0.04923763993551648</v>
+      </c>
+      <c r="D101">
+        <v>0.008513294067398675</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
